--- a/HackathonDataNEW.xlsx
+++ b/HackathonDataNEW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fleadsom/Documents/internHackathon/hackathon/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mateisterian/PycharmProjects/internHackathon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB0C0CF-7AD0-7C4B-8365-7F4C591C1F91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDE94C0-C6DB-894C-A840-374FCA08E532}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28160" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35000" windowHeight="20120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GradPreferences" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,14 +881,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="47.1640625" customWidth="1"/>
     <col min="6" max="6" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -924,19 +928,19 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>81</v>
       </c>
       <c r="G2" t="s">
@@ -953,19 +957,19 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G3" t="s">
@@ -979,19 +983,19 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G4" t="s">
@@ -1823,7 +1827,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="O2:O38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O2:O38">
     <sortCondition ref="O2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1836,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
